--- a/Titanic Survisors with Tableau/Titanic_sunburst.xlsx
+++ b/Titanic Survisors with Tableau/Titanic_sunburst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\random\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem 4\Big Data System Intelligance\github\Data Visualizations\Titanic Survisors with Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E252B1F-AD0E-4A04-A998-136966162A95}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E372D16F-B267-4CB8-98E6-C09BF9B7BE4B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{1FF4015E-C830-4662-B6E5-6AE2F3497675}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$125</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="13">
   <si>
     <t>Sex</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ToPad</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -445,9 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7345A22-B834-4020-80CD-A313272731E5}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -475,36 +480,31 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <f>233+109</f>
+        <v>342</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
         <v>233</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
-        <v>91</v>
-      </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -514,17 +514,16 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6">
-        <v>42</v>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>91</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -540,14 +539,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -564,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="6">
         <v>4</v>
@@ -587,10 +583,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -610,10 +606,10 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>4</v>
@@ -633,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6">
         <v>4</v>
@@ -656,10 +652,10 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="6">
         <v>4</v>
@@ -676,13 +672,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -698,14 +697,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
-        <v>4</v>
+      <c r="F12">
+        <v>3</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -719,13 +715,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>48</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -741,14 +740,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -765,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>4</v>
@@ -788,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="6">
         <v>4</v>
@@ -811,10 +807,10 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6">
         <v>4</v>
@@ -834,10 +830,10 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
@@ -857,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6">
         <v>5</v>
@@ -880,10 +876,10 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6">
         <v>4</v>
@@ -903,10 +899,10 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
@@ -919,16 +915,20 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -938,17 +938,16 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6">
-        <v>7</v>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <v>70</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -964,14 +963,11 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -988,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="6">
         <v>4</v>
@@ -1011,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
@@ -1031,13 +1027,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
       </c>
       <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1053,14 +1052,11 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
       <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1077,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -1097,13 +1093,16 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
       </c>
       <c r="E30" s="6">
-        <v>61</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1119,14 +1118,11 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
       <c r="E31" s="6">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1143,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
@@ -1166,10 +1162,10 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F33" s="6">
         <v>4</v>
@@ -1189,10 +1185,10 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F34" s="6">
         <v>4</v>
@@ -1212,10 +1208,10 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F35" s="6">
         <v>4</v>
@@ -1235,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F36" s="6">
         <v>4</v>
@@ -1258,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="6">
         <v>4</v>
@@ -1274,16 +1270,20 @@
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5">
-        <v>72</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1293,17 +1293,16 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="6">
-        <v>15</v>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5">
+        <v>72</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1319,14 +1318,11 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="E40" s="6">
-        <v>5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1343,10 +1339,10 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="6">
         <v>4</v>
@@ -1366,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="6">
         <v>4</v>
@@ -1389,10 +1385,10 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="6">
         <v>4</v>
@@ -1412,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E44" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6">
         <v>4</v>
@@ -1432,13 +1428,16 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
       </c>
       <c r="E45" s="6">
-        <v>24</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1454,14 +1453,11 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
       <c r="E46" s="6">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1478,10 +1474,10 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" s="6">
         <v>4</v>
@@ -1501,10 +1497,10 @@
         <v>7</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="6">
         <v>4</v>
@@ -1524,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E49" s="6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F49" s="6">
         <v>4</v>
@@ -1544,13 +1540,16 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
       </c>
       <c r="E50" s="6">
-        <v>33</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1566,14 +1565,11 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
       <c r="E51" s="6">
-        <v>6</v>
-      </c>
-      <c r="F51" s="6">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1590,10 +1586,10 @@
         <v>8</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="6">
         <v>4</v>
@@ -1613,10 +1609,10 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F53" s="6">
         <v>4</v>
@@ -1636,10 +1632,10 @@
         <v>8</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F54" s="6">
         <v>4</v>
@@ -1659,10 +1655,10 @@
         <v>8</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55" s="6">
         <v>4</v>
@@ -1682,10 +1678,10 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="6">
         <v>4</v>
@@ -1705,49 +1701,53 @@
         <v>8</v>
       </c>
       <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
         <v>100</v>
       </c>
-      <c r="E57" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" s="6">
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3">
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3">
         <v>109</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5">
-        <v>45</v>
-      </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -1757,17 +1757,16 @@
       <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="6">
-        <v>17</v>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5">
+        <v>45</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -1783,14 +1782,11 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
       <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -1807,10 +1803,10 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6">
         <v>4</v>
@@ -1830,7 +1826,7 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="6">
         <v>5</v>
@@ -1853,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" s="6">
         <v>4</v>
@@ -1876,10 +1872,10 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="6">
         <v>4</v>
@@ -1899,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="6">
         <v>4</v>
@@ -1922,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
@@ -1945,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="6">
         <v>4</v>
@@ -1965,13 +1961,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
       </c>
       <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>4</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -1987,14 +1986,11 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
       <c r="E70" s="6">
         <v>0</v>
       </c>
-      <c r="F70" s="6">
-        <v>4</v>
+      <c r="F70">
+        <v>3</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2008,13 +2004,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
       </c>
       <c r="E71" s="6">
-        <v>28</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>4</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2030,14 +2029,11 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="E72" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" s="6">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2054,10 +2050,10 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="6">
         <v>4</v>
@@ -2077,10 +2073,10 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
@@ -2100,10 +2096,10 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F75" s="6">
         <v>4</v>
@@ -2123,10 +2119,10 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F76" s="6">
         <v>4</v>
@@ -2146,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
@@ -2169,10 +2165,10 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="6">
         <v>4</v>
@@ -2192,10 +2188,10 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="6">
         <v>4</v>
@@ -2215,10 +2211,10 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E80" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80" s="6">
         <v>4</v>
@@ -2231,16 +2227,20 @@
       <c r="A81" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="4">
-        <v>2</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5">
-        <v>17</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81" s="6">
+        <v>4</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2250,17 +2250,16 @@
       <c r="A82" t="s">
         <v>9</v>
       </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6">
-        <v>2</v>
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5">
+        <v>17</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2276,14 +2275,11 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
       <c r="E83" s="6">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2300,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="6">
         <v>4</v>
@@ -2323,7 +2319,7 @@
         <v>6</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
@@ -2346,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="6">
         <v>4</v>
@@ -2366,13 +2362,16 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
       </c>
       <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>4</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2388,14 +2387,11 @@
       <c r="C88" t="s">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
       <c r="E88" s="6">
         <v>0</v>
       </c>
-      <c r="F88" s="6">
-        <v>4</v>
+      <c r="F88">
+        <v>3</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2409,13 +2405,16 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
       </c>
       <c r="E89" s="6">
-        <v>15</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <v>4</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2431,14 +2430,11 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
       <c r="E90" s="6">
-        <v>8</v>
-      </c>
-      <c r="F90" s="6">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2455,10 +2451,10 @@
         <v>8</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F91" s="6">
         <v>4</v>
@@ -2478,10 +2474,10 @@
         <v>8</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="6">
         <v>4</v>
@@ -2501,10 +2497,10 @@
         <v>8</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F93" s="6">
         <v>4</v>
@@ -2524,10 +2520,10 @@
         <v>8</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94" s="6">
         <v>4</v>
@@ -2547,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="6">
         <v>4</v>
@@ -2570,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="6">
         <v>4</v>
@@ -2593,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E97" s="6">
         <v>1</v>
@@ -2609,16 +2605,20 @@
       <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="4">
-        <v>3</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="5">
-        <v>47</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>4</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -2628,17 +2628,16 @@
       <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="6">
-        <v>10</v>
+      <c r="B99" s="4">
+        <v>3</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5">
+        <v>47</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -2654,14 +2653,11 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
       <c r="E100" s="6">
-        <v>1</v>
-      </c>
-      <c r="F100" s="6">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2678,10 +2674,10 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" s="6">
         <v>4</v>
@@ -2701,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -2724,10 +2720,10 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F103" s="6">
         <v>4</v>
@@ -2747,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" s="6">
         <v>0</v>
@@ -2770,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E105" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F105" s="6">
         <v>4</v>
@@ -2790,13 +2786,16 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
       </c>
-      <c r="F106">
-        <v>3</v>
+      <c r="F106" s="6">
+        <v>4</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2812,14 +2811,11 @@
       <c r="C107" t="s">
         <v>7</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
       <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2836,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="6">
         <v>0</v>
@@ -2859,10 +2855,10 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" s="6">
         <v>4</v>
@@ -2882,10 +2878,10 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E110" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="6">
         <v>4</v>
@@ -2905,7 +2901,7 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111" s="6">
         <v>0</v>
@@ -2928,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E112" s="6">
         <v>0</v>
@@ -2951,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" s="6">
         <v>0</v>
@@ -2974,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="D114">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E114" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" s="6">
         <v>4</v>
@@ -2994,13 +2990,16 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
       </c>
       <c r="E115" s="6">
-        <v>34</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F115" s="6">
+        <v>4</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3016,14 +3015,11 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
       <c r="E116" s="6">
-        <v>7</v>
-      </c>
-      <c r="F116" s="6">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3040,10 +3036,10 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F117" s="6">
         <v>4</v>
@@ -3063,10 +3059,10 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F118" s="6">
         <v>4</v>
@@ -3086,10 +3082,10 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F119" s="6">
         <v>4</v>
@@ -3109,10 +3105,10 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F120" s="6">
         <v>4</v>
@@ -3132,10 +3128,10 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" s="6">
         <v>4</v>
@@ -3155,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E122" s="6">
         <v>0</v>
@@ -3178,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" s="6">
         <v>0</v>
@@ -3201,49 +3197,53 @@
         <v>8</v>
       </c>
       <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
         <v>100</v>
       </c>
-      <c r="E124" s="6">
-        <v>4</v>
-      </c>
-      <c r="F124" s="6">
-        <v>4</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="3">
+      <c r="E125" s="6">
+        <v>4</v>
+      </c>
+      <c r="F125" s="6">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="3">
         <v>233</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="4">
-        <v>1</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="5">
-        <v>91</v>
-      </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>203</v>
@@ -3253,17 +3253,16 @@
       <c r="A127" t="s">
         <v>5</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="6">
-        <v>42</v>
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5">
+        <v>91</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <v>203</v>
@@ -3279,14 +3278,11 @@
       <c r="C128" t="s">
         <v>6</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
       <c r="E128" s="6">
-        <v>5</v>
-      </c>
-      <c r="F128" s="6">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
       </c>
       <c r="G128">
         <v>203</v>
@@ -3303,10 +3299,10 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F129" s="6">
         <v>4</v>
@@ -3326,10 +3322,10 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F130" s="6">
         <v>4</v>
@@ -3349,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F131" s="6">
         <v>4</v>
@@ -3372,10 +3368,10 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F132" s="6">
         <v>4</v>
@@ -3395,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E133" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F133" s="6">
         <v>4</v>
@@ -3415,13 +3411,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
       </c>
       <c r="E134" s="6">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F134" s="6">
+        <v>4</v>
       </c>
       <c r="G134">
         <v>203</v>
@@ -3437,14 +3436,11 @@
       <c r="C135" t="s">
         <v>7</v>
       </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
       <c r="E135" s="6">
         <v>1</v>
       </c>
-      <c r="F135" s="6">
-        <v>4</v>
+      <c r="F135">
+        <v>3</v>
       </c>
       <c r="G135">
         <v>203</v>
@@ -3458,13 +3454,16 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
       </c>
       <c r="E136" s="6">
-        <v>48</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F136" s="6">
+        <v>4</v>
       </c>
       <c r="G136">
         <v>203</v>
@@ -3480,14 +3479,11 @@
       <c r="C137" t="s">
         <v>8</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
       <c r="E137" s="6">
-        <v>0</v>
-      </c>
-      <c r="F137" s="6">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
       </c>
       <c r="G137">
         <v>203</v>
@@ -3504,10 +3500,10 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F138" s="6">
         <v>4</v>
@@ -3527,10 +3523,10 @@
         <v>8</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F139" s="6">
         <v>4</v>
@@ -3550,10 +3546,10 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E140" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F140" s="6">
         <v>4</v>
@@ -3573,10 +3569,10 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E141" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F141" s="6">
         <v>4</v>
@@ -3596,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142" s="6">
         <v>5</v>
@@ -3619,10 +3615,10 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F143" s="6">
         <v>4</v>
@@ -3642,10 +3638,10 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E144" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F144" s="6">
         <v>4</v>
@@ -3658,16 +3654,20 @@
       <c r="A145" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="4">
-        <v>2</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="5">
-        <v>70</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>100</v>
+      </c>
+      <c r="E145" s="6">
+        <v>4</v>
+      </c>
+      <c r="F145" s="6">
+        <v>4</v>
       </c>
       <c r="G145">
         <v>203</v>
@@ -3677,17 +3677,16 @@
       <c r="A146" t="s">
         <v>5</v>
       </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="6">
-        <v>7</v>
+      <c r="B146" s="4">
+        <v>2</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5">
+        <v>70</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G146">
         <v>203</v>
@@ -3703,14 +3702,11 @@
       <c r="C147" t="s">
         <v>6</v>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
       <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
       </c>
       <c r="G147">
         <v>203</v>
@@ -3727,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" s="6">
         <v>4</v>
@@ -3750,10 +3746,10 @@
         <v>6</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F149" s="6">
         <v>4</v>
@@ -3770,13 +3766,16 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
       </c>
       <c r="E150" s="6">
-        <v>2</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F150" s="6">
+        <v>4</v>
       </c>
       <c r="G150">
         <v>203</v>
@@ -3792,14 +3791,11 @@
       <c r="C151" t="s">
         <v>7</v>
       </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
       <c r="E151" s="6">
-        <v>1</v>
-      </c>
-      <c r="F151" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
       </c>
       <c r="G151">
         <v>203</v>
@@ -3816,7 +3812,7 @@
         <v>7</v>
       </c>
       <c r="D152">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E152" s="6">
         <v>1</v>
@@ -3836,13 +3832,16 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
       </c>
       <c r="E153" s="6">
-        <v>61</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F153" s="6">
+        <v>4</v>
       </c>
       <c r="G153">
         <v>203</v>
@@ -3858,14 +3857,11 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
       <c r="E154" s="6">
-        <v>7</v>
-      </c>
-      <c r="F154" s="6">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
       </c>
       <c r="G154">
         <v>203</v>
@@ -3882,10 +3878,10 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F155" s="6">
         <v>4</v>
@@ -3905,10 +3901,10 @@
         <v>8</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F156" s="6">
         <v>4</v>
@@ -3928,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E157" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F157" s="6">
         <v>4</v>
@@ -3951,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E158" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F158" s="6">
         <v>4</v>
@@ -3974,10 +3970,10 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E159" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F159" s="6">
         <v>4</v>
@@ -3997,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="D160">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E160" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" s="6">
         <v>4</v>
@@ -4013,16 +4009,20 @@
       <c r="A161" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="4">
-        <v>3</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="5">
-        <v>72</v>
-      </c>
-      <c r="F161">
-        <v>2</v>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>100</v>
+      </c>
+      <c r="E161" s="6">
+        <v>1</v>
+      </c>
+      <c r="F161" s="6">
+        <v>4</v>
       </c>
       <c r="G161">
         <v>203</v>
@@ -4032,17 +4032,16 @@
       <c r="A162" t="s">
         <v>5</v>
       </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" s="6">
-        <v>15</v>
+      <c r="B162" s="4">
+        <v>3</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5">
+        <v>72</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G162">
         <v>203</v>
@@ -4058,14 +4057,11 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
       <c r="E163" s="6">
-        <v>5</v>
-      </c>
-      <c r="F163" s="6">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
       </c>
       <c r="G163">
         <v>203</v>
@@ -4082,10 +4078,10 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F164" s="6">
         <v>4</v>
@@ -4105,10 +4101,10 @@
         <v>6</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F165" s="6">
         <v>4</v>
@@ -4128,10 +4124,10 @@
         <v>6</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F166" s="6">
         <v>4</v>
@@ -4151,10 +4147,10 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E167" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F167" s="6">
         <v>4</v>
@@ -4171,13 +4167,16 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>100</v>
       </c>
       <c r="E168" s="6">
-        <v>24</v>
-      </c>
-      <c r="F168">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F168" s="6">
+        <v>4</v>
       </c>
       <c r="G168">
         <v>203</v>
@@ -4193,14 +4192,11 @@
       <c r="C169" t="s">
         <v>7</v>
       </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
       <c r="E169" s="6">
-        <v>4</v>
-      </c>
-      <c r="F169" s="6">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
       </c>
       <c r="G169">
         <v>203</v>
@@ -4217,10 +4213,10 @@
         <v>7</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F170" s="6">
         <v>4</v>
@@ -4240,10 +4236,10 @@
         <v>7</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" s="6">
         <v>4</v>
@@ -4263,10 +4259,10 @@
         <v>7</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E172" s="6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F172" s="6">
         <v>4</v>
@@ -4283,13 +4279,16 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>100</v>
       </c>
       <c r="E173" s="6">
-        <v>33</v>
-      </c>
-      <c r="F173">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="F173" s="6">
+        <v>4</v>
       </c>
       <c r="G173">
         <v>203</v>
@@ -4305,14 +4304,11 @@
       <c r="C174" t="s">
         <v>8</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
       <c r="E174" s="6">
-        <v>6</v>
-      </c>
-      <c r="F174" s="6">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
       </c>
       <c r="G174">
         <v>203</v>
@@ -4329,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F175" s="6">
         <v>4</v>
@@ -4352,10 +4348,10 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E176" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F176" s="6">
         <v>4</v>
@@ -4375,10 +4371,10 @@
         <v>8</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E177" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F177" s="6">
         <v>4</v>
@@ -4398,10 +4394,10 @@
         <v>8</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F178" s="6">
         <v>4</v>
@@ -4421,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E179" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="6">
         <v>4</v>
@@ -4444,49 +4440,53 @@
         <v>8</v>
       </c>
       <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180" s="6">
+        <v>1</v>
+      </c>
+      <c r="F180" s="6">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181">
         <v>100</v>
       </c>
-      <c r="E180" s="6">
-        <v>2</v>
-      </c>
-      <c r="F180" s="6">
-        <v>4</v>
-      </c>
-      <c r="G180">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="3">
+      <c r="E181" s="6">
+        <v>2</v>
+      </c>
+      <c r="F181" s="6">
+        <v>4</v>
+      </c>
+      <c r="G181">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="3">
         <v>109</v>
       </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>9</v>
-      </c>
-      <c r="B182" s="4">
-        <v>1</v>
-      </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="5">
-        <v>45</v>
-      </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
         <v>203</v>
@@ -4496,17 +4496,16 @@
       <c r="A183" t="s">
         <v>9</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>6</v>
-      </c>
-      <c r="E183" s="6">
-        <v>17</v>
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="5">
+        <v>45</v>
       </c>
       <c r="F183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183">
         <v>203</v>
@@ -4522,14 +4521,11 @@
       <c r="C184" t="s">
         <v>6</v>
       </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
       <c r="E184" s="6">
-        <v>1</v>
-      </c>
-      <c r="F184" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
       </c>
       <c r="G184">
         <v>203</v>
@@ -4546,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F185" s="6">
         <v>4</v>
@@ -4569,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E186" s="6">
         <v>5</v>
@@ -4592,10 +4588,10 @@
         <v>6</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E187" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F187" s="6">
         <v>4</v>
@@ -4615,10 +4611,10 @@
         <v>6</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" s="6">
         <v>4</v>
@@ -4638,10 +4634,10 @@
         <v>6</v>
       </c>
       <c r="D189">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E189" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F189" s="6">
         <v>4</v>
@@ -4661,7 +4657,7 @@
         <v>6</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="6">
         <v>0</v>
@@ -4684,10 +4680,10 @@
         <v>6</v>
       </c>
       <c r="D191">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E191" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="6">
         <v>4</v>
@@ -4704,13 +4700,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>100</v>
       </c>
       <c r="E192" s="6">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F192" s="6">
+        <v>4</v>
       </c>
       <c r="G192">
         <v>203</v>
@@ -4726,14 +4725,11 @@
       <c r="C193" t="s">
         <v>7</v>
       </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
       <c r="E193" s="6">
         <v>0</v>
       </c>
-      <c r="F193" s="6">
-        <v>4</v>
+      <c r="F193">
+        <v>3</v>
       </c>
       <c r="G193">
         <v>203</v>
@@ -4747,13 +4743,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
       </c>
       <c r="E194" s="6">
-        <v>28</v>
-      </c>
-      <c r="F194">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F194" s="6">
+        <v>4</v>
       </c>
       <c r="G194">
         <v>203</v>
@@ -4769,14 +4768,11 @@
       <c r="C195" t="s">
         <v>8</v>
       </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
       <c r="E195" s="6">
-        <v>2</v>
-      </c>
-      <c r="F195" s="6">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
       </c>
       <c r="G195">
         <v>203</v>
@@ -4793,10 +4789,10 @@
         <v>8</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" s="6">
         <v>4</v>
@@ -4816,10 +4812,10 @@
         <v>8</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F197" s="6">
         <v>4</v>
@@ -4839,10 +4835,10 @@
         <v>8</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F198" s="6">
         <v>4</v>
@@ -4862,10 +4858,10 @@
         <v>8</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E199" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F199" s="6">
         <v>4</v>
@@ -4885,10 +4881,10 @@
         <v>8</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E200" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F200" s="6">
         <v>4</v>
@@ -4908,10 +4904,10 @@
         <v>8</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F201" s="6">
         <v>4</v>
@@ -4931,10 +4927,10 @@
         <v>8</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" s="6">
         <v>4</v>
@@ -4954,10 +4950,10 @@
         <v>8</v>
       </c>
       <c r="D203">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E203" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F203" s="6">
         <v>4</v>
@@ -4970,16 +4966,20 @@
       <c r="A204" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="4">
-        <v>2</v>
-      </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="5">
-        <v>17</v>
-      </c>
-      <c r="F204">
-        <v>2</v>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204">
+        <v>100</v>
+      </c>
+      <c r="E204" s="6">
+        <v>4</v>
+      </c>
+      <c r="F204" s="6">
+        <v>4</v>
       </c>
       <c r="G204">
         <v>203</v>
@@ -4989,17 +4989,16 @@
       <c r="A205" t="s">
         <v>9</v>
       </c>
-      <c r="B205">
-        <v>2</v>
-      </c>
-      <c r="C205" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" s="6">
-        <v>2</v>
+      <c r="B205" s="4">
+        <v>2</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5">
+        <v>17</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G205">
         <v>203</v>
@@ -5015,14 +5014,11 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
       <c r="E206" s="6">
-        <v>1</v>
-      </c>
-      <c r="F206" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
       </c>
       <c r="G206">
         <v>203</v>
@@ -5039,10 +5035,10 @@
         <v>6</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E207" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" s="6">
         <v>4</v>
@@ -5062,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E208" s="6">
         <v>0</v>
@@ -5085,10 +5081,10 @@
         <v>6</v>
       </c>
       <c r="D209">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E209" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="6">
         <v>4</v>
@@ -5105,13 +5101,16 @@
         <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>100</v>
       </c>
       <c r="E210" s="6">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F210" s="6">
+        <v>4</v>
       </c>
       <c r="G210">
         <v>203</v>
@@ -5127,14 +5126,11 @@
       <c r="C211" t="s">
         <v>7</v>
       </c>
-      <c r="D211">
-        <v>6</v>
-      </c>
       <c r="E211" s="6">
         <v>0</v>
       </c>
-      <c r="F211" s="6">
-        <v>4</v>
+      <c r="F211">
+        <v>3</v>
       </c>
       <c r="G211">
         <v>203</v>
@@ -5148,13 +5144,16 @@
         <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
       </c>
       <c r="E212" s="6">
-        <v>15</v>
-      </c>
-      <c r="F212">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F212" s="6">
+        <v>4</v>
       </c>
       <c r="G212">
         <v>203</v>
@@ -5170,14 +5169,11 @@
       <c r="C213" t="s">
         <v>8</v>
       </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
       <c r="E213" s="6">
-        <v>8</v>
-      </c>
-      <c r="F213" s="6">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
       </c>
       <c r="G213">
         <v>203</v>
@@ -5194,10 +5190,10 @@
         <v>8</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F214" s="6">
         <v>4</v>
@@ -5217,10 +5213,10 @@
         <v>8</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E215" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" s="6">
         <v>4</v>
@@ -5240,10 +5236,10 @@
         <v>8</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E216" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F216" s="6">
         <v>4</v>
@@ -5263,10 +5259,10 @@
         <v>8</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F217" s="6">
         <v>4</v>
@@ -5286,10 +5282,10 @@
         <v>8</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E218" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" s="6">
         <v>4</v>
@@ -5309,10 +5305,10 @@
         <v>8</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E219" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" s="6">
         <v>4</v>
@@ -5332,7 +5328,7 @@
         <v>8</v>
       </c>
       <c r="D220">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E220" s="6">
         <v>1</v>
@@ -5348,16 +5344,20 @@
       <c r="A221" t="s">
         <v>9</v>
       </c>
-      <c r="B221" s="4">
-        <v>3</v>
-      </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="5">
-        <v>47</v>
-      </c>
-      <c r="F221">
-        <v>2</v>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>100</v>
+      </c>
+      <c r="E221" s="6">
+        <v>1</v>
+      </c>
+      <c r="F221" s="6">
+        <v>4</v>
       </c>
       <c r="G221">
         <v>203</v>
@@ -5367,17 +5367,16 @@
       <c r="A222" t="s">
         <v>9</v>
       </c>
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="C222" t="s">
-        <v>6</v>
-      </c>
-      <c r="E222" s="6">
-        <v>10</v>
+      <c r="B222" s="4">
+        <v>3</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="5">
+        <v>47</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G222">
         <v>203</v>
@@ -5393,14 +5392,11 @@
       <c r="C223" t="s">
         <v>6</v>
       </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
       <c r="E223" s="6">
-        <v>1</v>
-      </c>
-      <c r="F223" s="6">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
       </c>
       <c r="G223">
         <v>203</v>
@@ -5417,10 +5413,10 @@
         <v>6</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F224" s="6">
         <v>4</v>
@@ -5440,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E225" s="6">
         <v>3</v>
@@ -5463,10 +5459,10 @@
         <v>6</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E226" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F226" s="6">
         <v>4</v>
@@ -5486,7 +5482,7 @@
         <v>6</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E227" s="6">
         <v>0</v>
@@ -5509,10 +5505,10 @@
         <v>6</v>
       </c>
       <c r="D228">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E228" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F228" s="6">
         <v>4</v>
@@ -5529,13 +5525,16 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>100</v>
       </c>
       <c r="E229" s="6">
         <v>3</v>
       </c>
-      <c r="F229">
-        <v>3</v>
+      <c r="F229" s="6">
+        <v>4</v>
       </c>
       <c r="G229">
         <v>203</v>
@@ -5551,14 +5550,11 @@
       <c r="C230" t="s">
         <v>7</v>
       </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
       <c r="E230" s="6">
-        <v>0</v>
-      </c>
-      <c r="F230" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>3</v>
       </c>
       <c r="G230">
         <v>203</v>
@@ -5575,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E231" s="6">
         <v>0</v>
@@ -5598,10 +5594,10 @@
         <v>7</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E232" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232" s="6">
         <v>4</v>
@@ -5621,10 +5617,10 @@
         <v>7</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E233" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" s="6">
         <v>4</v>
@@ -5644,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234" s="6">
         <v>0</v>
@@ -5667,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
@@ -5690,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="D236">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
@@ -5713,10 +5709,10 @@
         <v>7</v>
       </c>
       <c r="D237">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E237" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F237" s="6">
         <v>4</v>
@@ -5733,13 +5729,16 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D238">
+        <v>100</v>
       </c>
       <c r="E238" s="6">
-        <v>34</v>
-      </c>
-      <c r="F238">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4</v>
       </c>
       <c r="G238">
         <v>203</v>
@@ -5755,14 +5754,11 @@
       <c r="C239" t="s">
         <v>8</v>
       </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
       <c r="E239" s="6">
-        <v>7</v>
-      </c>
-      <c r="F239" s="6">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
       </c>
       <c r="G239">
         <v>203</v>
@@ -5779,10 +5775,10 @@
         <v>8</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F240" s="6">
         <v>4</v>
@@ -5802,10 +5798,10 @@
         <v>8</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E241" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F241" s="6">
         <v>4</v>
@@ -5825,10 +5821,10 @@
         <v>8</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E242" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F242" s="6">
         <v>4</v>
@@ -5848,10 +5844,10 @@
         <v>8</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F243" s="6">
         <v>4</v>
@@ -5871,10 +5867,10 @@
         <v>8</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E244" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F244" s="6">
         <v>4</v>
@@ -5894,7 +5890,7 @@
         <v>8</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245" s="6">
         <v>0</v>
@@ -5917,7 +5913,7 @@
         <v>8</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246" s="6">
         <v>0</v>
@@ -5940,15 +5936,38 @@
         <v>8</v>
       </c>
       <c r="D247">
+        <v>8</v>
+      </c>
+      <c r="E247" s="6">
+        <v>0</v>
+      </c>
+      <c r="F247" s="6">
+        <v>4</v>
+      </c>
+      <c r="G247">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248">
         <v>100</v>
       </c>
-      <c r="E247" s="6">
-        <v>4</v>
-      </c>
-      <c r="F247" s="6">
-        <v>4</v>
-      </c>
-      <c r="G247">
+      <c r="E248" s="6">
+        <v>4</v>
+      </c>
+      <c r="F248" s="6">
+        <v>4</v>
+      </c>
+      <c r="G248">
         <v>203</v>
       </c>
     </row>
